--- a/biology/Botanique/Nierembergia_gracilis/Nierembergia_gracilis.xlsx
+++ b/biology/Botanique/Nierembergia_gracilis/Nierembergia_gracilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nierembergia gracilis est une espèce de plantes de la famille des Solanacées originaire d'Amérique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>William Jackson Hooker décrit cette plante en 1831 obtenue à partir de graines originaires des environs de Buenos Aires et envoyées par John Tweedie.
 Deux variétés botaniques sont référencées :
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante vivace (si les températures restent strictement positives), buissonnante, de moins de cinquante centimètres de haut.
 Ses tiges sont grêles et ramifiées et dressées. L'ensemble de la plante est pubescent, ce qui constitue une caractéristique de cette espèce.
@@ -579,7 +595,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Nierembergia gracilis est une plante originaire d'Argentine.
 Elle s'est maintenant largement répandue comme plante ornementale, surtout dans les régions à climat méditerranéen.
@@ -612,9 +630,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Nierembergia gracilis est une plante ornementale  maintenant utilisée depuis plus d'un siècle en France, mais moins diffusée cependant que les pétunias et que Nierembergia repens ou Nierembergia scoparia[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nierembergia gracilis est une plante ornementale  maintenant utilisée depuis plus d'un siècle en France, mais moins diffusée cependant que les pétunias et que Nierembergia repens ou Nierembergia scoparia.
 Quelques établissements horticoles la proposent, surtout sous la forme de son principal cultivar :
 Nierembergia gracilis 'Starry Eyes'.</t>
         </is>
